--- a/synthetic_esf_visual/invoices/BASE_0003.xlsx
+++ b/synthetic_esf_visual/invoices/BASE_0003.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-13</t>
         </is>
       </c>
     </row>
